--- a/Tables/PERMANOVA_bio_spInt_2.xlsx
+++ b/Tables/PERMANOVA_bio_spInt_2.xlsx
@@ -418,7 +418,7 @@
         <v>0.0448475327347129</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0107</v>
+        <v>0.0105</v>
       </c>
     </row>
     <row r="4">
@@ -438,7 +438,7 @@
         <v>0.00366537767179106</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4657</v>
+        <v>0.4676</v>
       </c>
     </row>
     <row r="5">
@@ -488,7 +488,7 @@
         <v>0.0133863999684277</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1596</v>
+        <v>0.1666</v>
       </c>
     </row>
     <row r="8">
@@ -508,7 +508,7 @@
         <v>0.0259294055854212</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0528</v>
+        <v>0.0511</v>
       </c>
     </row>
     <row r="9">
@@ -528,7 +528,7 @@
         <v>0.0000256781055763094</v>
       </c>
       <c r="F9" t="n">
-        <v>0.949</v>
+        <v>0.9552</v>
       </c>
     </row>
     <row r="10">
@@ -578,7 +578,7 @@
         <v>0.00651340842302471</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3382</v>
+        <v>0.346</v>
       </c>
     </row>
     <row r="13">
@@ -598,7 +598,7 @@
         <v>0.00194005322586884</v>
       </c>
       <c r="F13" t="n">
-        <v>0.593</v>
+        <v>0.5948</v>
       </c>
     </row>
     <row r="14">
@@ -618,7 +618,7 @@
         <v>0.00493685144562409</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3977</v>
+        <v>0.4058</v>
       </c>
     </row>
     <row r="15">
@@ -668,7 +668,7 @@
         <v>0.0226782702500181</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0726</v>
+        <v>0.0729</v>
       </c>
     </row>
     <row r="18">
@@ -688,7 +688,7 @@
         <v>0.0000000907924828287773</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9972</v>
+        <v>0.9962</v>
       </c>
     </row>
     <row r="19">
@@ -708,7 +708,7 @@
         <v>0.00227648027819178</v>
       </c>
       <c r="F19" t="n">
-        <v>0.568</v>
+        <v>0.5725</v>
       </c>
     </row>
     <row r="20">
@@ -758,7 +758,7 @@
         <v>0.0125491983342534</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1863</v>
+        <v>0.1733</v>
       </c>
     </row>
     <row r="23">
@@ -778,7 +778,7 @@
         <v>0.00337550840357217</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4903</v>
+        <v>0.4874</v>
       </c>
     </row>
     <row r="24">
@@ -798,7 +798,7 @@
         <v>0.0102658617489061</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2254</v>
+        <v>0.2239</v>
       </c>
     </row>
     <row r="25">
@@ -848,7 +848,7 @@
         <v>0.000452593699371172</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8889</v>
+        <v>0.8888</v>
       </c>
     </row>
     <row r="28">
@@ -868,7 +868,7 @@
         <v>0.04608015014333</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0145</v>
+        <v>0.0143</v>
       </c>
     </row>
     <row r="29">
@@ -888,7 +888,7 @@
         <v>0.00042877297835163</v>
       </c>
       <c r="F29" t="n">
-        <v>0.8908</v>
+        <v>0.8919</v>
       </c>
     </row>
     <row r="30">
@@ -938,7 +938,7 @@
         <v>0.0132103176058584</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1713</v>
+        <v>0.1679</v>
       </c>
     </row>
     <row r="33">
@@ -958,7 +958,7 @@
         <v>0.00101735788396135</v>
       </c>
       <c r="F33" t="n">
-        <v>0.7042</v>
+        <v>0.7092</v>
       </c>
     </row>
     <row r="34">
@@ -978,7 +978,7 @@
         <v>0.0000136883150685139</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9618</v>
+        <v>0.9668</v>
       </c>
     </row>
     <row r="35">

--- a/Tables/PERMANOVA_bio_spInt_2.xlsx
+++ b/Tables/PERMANOVA_bio_spInt_2.xlsx
@@ -398,7 +398,7 @@
         <v>0.00386900976466836</v>
       </c>
       <c r="F2" t="n">
-        <v>0.448</v>
+        <v>0.4525</v>
       </c>
     </row>
     <row r="3">
@@ -418,7 +418,7 @@
         <v>0.0448475327347129</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0105</v>
+        <v>0.0113</v>
       </c>
     </row>
     <row r="4">
@@ -438,7 +438,7 @@
         <v>0.00366537767179106</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4676</v>
+        <v>0.4617</v>
       </c>
     </row>
     <row r="5">
@@ -488,7 +488,7 @@
         <v>0.0133863999684277</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1666</v>
+        <v>0.1631</v>
       </c>
     </row>
     <row r="8">
@@ -508,7 +508,7 @@
         <v>0.0259294055854212</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0511</v>
+        <v>0.0494</v>
       </c>
     </row>
     <row r="9">
@@ -528,7 +528,7 @@
         <v>0.0000256781055763094</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9552</v>
+        <v>0.9533</v>
       </c>
     </row>
     <row r="10">
@@ -578,7 +578,7 @@
         <v>0.00651340842302471</v>
       </c>
       <c r="F12" t="n">
-        <v>0.346</v>
+        <v>0.3356</v>
       </c>
     </row>
     <row r="13">
@@ -598,7 +598,7 @@
         <v>0.00194005322586884</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5948</v>
+        <v>0.5926</v>
       </c>
     </row>
     <row r="14">
@@ -618,7 +618,7 @@
         <v>0.00493685144562409</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4058</v>
+        <v>0.4014</v>
       </c>
     </row>
     <row r="15">
@@ -668,7 +668,7 @@
         <v>0.0226782702500181</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0729</v>
+        <v>0.0737</v>
       </c>
     </row>
     <row r="18">
@@ -688,7 +688,7 @@
         <v>0.0000000907924828287773</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9962</v>
+        <v>0.9975</v>
       </c>
     </row>
     <row r="19">
@@ -708,7 +708,7 @@
         <v>0.00227648027819178</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5725</v>
+        <v>0.5746</v>
       </c>
     </row>
     <row r="20">
@@ -758,7 +758,7 @@
         <v>0.0125491983342534</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1733</v>
+        <v>0.183</v>
       </c>
     </row>
     <row r="23">
@@ -778,7 +778,7 @@
         <v>0.00337550840357217</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4874</v>
+        <v>0.4906</v>
       </c>
     </row>
     <row r="24">
@@ -798,7 +798,7 @@
         <v>0.0102658617489061</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2239</v>
+        <v>0.2146</v>
       </c>
     </row>
     <row r="25">
@@ -848,7 +848,7 @@
         <v>0.000452593699371172</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8888</v>
+        <v>0.8906</v>
       </c>
     </row>
     <row r="28">
@@ -868,7 +868,7 @@
         <v>0.04608015014333</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0143</v>
+        <v>0.0138</v>
       </c>
     </row>
     <row r="29">
@@ -888,7 +888,7 @@
         <v>0.00042877297835163</v>
       </c>
       <c r="F29" t="n">
-        <v>0.8919</v>
+        <v>0.8931</v>
       </c>
     </row>
     <row r="30">
@@ -938,7 +938,7 @@
         <v>0.0132103176058584</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1679</v>
+        <v>0.1669</v>
       </c>
     </row>
     <row r="33">
@@ -958,7 +958,7 @@
         <v>0.00101735788396135</v>
       </c>
       <c r="F33" t="n">
-        <v>0.7092</v>
+        <v>0.7037</v>
       </c>
     </row>
     <row r="34">
@@ -978,7 +978,7 @@
         <v>0.0000136883150685139</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9668</v>
+        <v>0.9623</v>
       </c>
     </row>
     <row r="35">

--- a/Tables/PERMANOVA_bio_spInt_2.xlsx
+++ b/Tables/PERMANOVA_bio_spInt_2.xlsx
@@ -398,7 +398,7 @@
         <v>0.00386900976466836</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4525</v>
+        <v>0.4379</v>
       </c>
     </row>
     <row r="3">
@@ -418,7 +418,7 @@
         <v>0.0448475327347129</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0113</v>
+        <v>0.009</v>
       </c>
     </row>
     <row r="4">
@@ -438,7 +438,7 @@
         <v>0.00366537767179106</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4617</v>
+        <v>0.4583</v>
       </c>
     </row>
     <row r="5">
@@ -476,19 +476,19 @@
         <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>1.74342289039623</v>
+        <v>1.45909393024205</v>
       </c>
       <c r="C7" t="n">
-        <v>1.74342289039623</v>
+        <v>1.45909393024205</v>
       </c>
       <c r="D7" t="n">
-        <v>2.00658357019155</v>
+        <v>1.80254062412806</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0133863999684277</v>
+        <v>0.0120517545303688</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1631</v>
+        <v>0.1794</v>
       </c>
     </row>
     <row r="8">
@@ -496,19 +496,19 @@
         <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>3.37700347655912</v>
+        <v>3.02226315113077</v>
       </c>
       <c r="C8" t="n">
-        <v>3.37700347655912</v>
+        <v>3.02226315113077</v>
       </c>
       <c r="D8" t="n">
-        <v>3.88674470770727</v>
+        <v>3.73365414919843</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0259294055854212</v>
+        <v>0.0249631451880308</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0494</v>
+        <v>0.0542</v>
       </c>
     </row>
     <row r="9">
@@ -516,19 +516,19 @@
         <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>0.00334427457339803</v>
+        <v>0.0246573092444615</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00334427457339803</v>
+        <v>0.0246573092444615</v>
       </c>
       <c r="D9" t="n">
-        <v>0.00384907554567252</v>
+        <v>0.0304612339710419</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0000256781055763094</v>
+        <v>0.000203663268165571</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9533</v>
+        <v>0.8681</v>
       </c>
     </row>
     <row r="10">
@@ -536,14 +536,14 @@
         <v>144</v>
       </c>
       <c r="B10" t="n">
-        <v>125.114597740423</v>
+        <v>116.562990671287</v>
       </c>
       <c r="C10" t="n">
-        <v>0.868851373197383</v>
+        <v>0.809465212995052</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="n">
-        <v>0.960658516340575</v>
+        <v>0.962781437013435</v>
       </c>
       <c r="F10"/>
     </row>
@@ -552,7 +552,7 @@
         <v>147</v>
       </c>
       <c r="B11" t="n">
-        <v>130.238368381952</v>
+        <v>121.069005061905</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>0.599957381458788</v>
+        <v>0.599299757733328</v>
       </c>
       <c r="C12" t="n">
-        <v>0.599957381458788</v>
+        <v>0.599299757733328</v>
       </c>
       <c r="D12" t="n">
-        <v>0.950660454041754</v>
+        <v>0.951903536722973</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00651340842302471</v>
+        <v>0.00652121976240012</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3356</v>
+        <v>0.3337</v>
       </c>
     </row>
     <row r="13">
@@ -586,19 +586,19 @@
         <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>0.178700486394867</v>
+        <v>0.166765352870391</v>
       </c>
       <c r="C13" t="n">
-        <v>0.178700486394867</v>
+        <v>0.166765352870391</v>
       </c>
       <c r="D13" t="n">
-        <v>0.283159255613387</v>
+        <v>0.26488335286599</v>
       </c>
       <c r="E13" t="n">
-        <v>0.00194005322586884</v>
+        <v>0.00181464033780894</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5926</v>
+        <v>0.5972</v>
       </c>
     </row>
     <row r="14">
@@ -606,19 +606,19 @@
         <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>0.454738943668484</v>
+        <v>0.474313210125965</v>
       </c>
       <c r="C14" t="n">
-        <v>0.454738943668484</v>
+        <v>0.474313210125965</v>
       </c>
       <c r="D14" t="n">
-        <v>0.720555066106881</v>
+        <v>0.753379951196707</v>
       </c>
       <c r="E14" t="n">
-        <v>0.00493685144562409</v>
+        <v>0.00516119127286086</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4014</v>
+        <v>0.3838</v>
       </c>
     </row>
     <row r="15">
@@ -626,14 +626,14 @@
         <v>144</v>
       </c>
       <c r="B15" t="n">
-        <v>90.8777288071256</v>
+        <v>90.659569782347</v>
       </c>
       <c r="C15" t="n">
-        <v>0.631095338938373</v>
+        <v>0.629580345710743</v>
       </c>
       <c r="D15"/>
       <c r="E15" t="n">
-        <v>0.986609686905482</v>
+        <v>0.98650294862693</v>
       </c>
       <c r="F15"/>
     </row>
@@ -642,7 +642,7 @@
         <v>147</v>
       </c>
       <c r="B16" t="n">
-        <v>92.1111256186478</v>
+        <v>91.8999481030767</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
@@ -668,7 +668,7 @@
         <v>0.0226782702500181</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0737</v>
+        <v>0.068</v>
       </c>
     </row>
     <row r="18">
@@ -688,7 +688,7 @@
         <v>0.0000000907924828287773</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9975</v>
+        <v>0.9969</v>
       </c>
     </row>
     <row r="19">
@@ -708,7 +708,7 @@
         <v>0.00227648027819178</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5746</v>
+        <v>0.574</v>
       </c>
     </row>
     <row r="20">
@@ -746,19 +746,19 @@
         <v>1</v>
       </c>
       <c r="B22" t="n">
-        <v>0.378910798456599</v>
+        <v>0.385694596188176</v>
       </c>
       <c r="C22" t="n">
-        <v>0.378910798456599</v>
+        <v>0.385694596188176</v>
       </c>
       <c r="D22" t="n">
-        <v>1.85568603225</v>
+        <v>1.90230852435001</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0125491983342534</v>
+        <v>0.0128631747690137</v>
       </c>
       <c r="F22" t="n">
-        <v>0.183</v>
+        <v>0.1721</v>
       </c>
     </row>
     <row r="23">
@@ -766,19 +766,19 @@
         <v>1</v>
       </c>
       <c r="B23" t="n">
-        <v>0.101920182495114</v>
+        <v>0.0985394102351073</v>
       </c>
       <c r="C23" t="n">
-        <v>0.101920182495114</v>
+        <v>0.0985394102351073</v>
       </c>
       <c r="D23" t="n">
-        <v>0.499146131044398</v>
+        <v>0.486012409629954</v>
       </c>
       <c r="E23" t="n">
-        <v>0.00337550840357217</v>
+        <v>0.00328635575405185</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4906</v>
+        <v>0.4826</v>
       </c>
     </row>
     <row r="24">
@@ -786,19 +786,19 @@
         <v>1</v>
       </c>
       <c r="B24" t="n">
-        <v>0.309967678294288</v>
+        <v>0.304050651125929</v>
       </c>
       <c r="C24" t="n">
-        <v>0.309967678294288</v>
+        <v>0.304050651125929</v>
       </c>
       <c r="D24" t="n">
-        <v>1.51804248757919</v>
+        <v>1.49962729887155</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0102658617489061</v>
+        <v>0.0101402941672459</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2146</v>
+        <v>0.2304</v>
       </c>
     </row>
     <row r="25">
@@ -806,14 +806,14 @@
         <v>144</v>
       </c>
       <c r="B25" t="n">
-        <v>29.4032255615961</v>
+        <v>29.1961167918724</v>
       </c>
       <c r="C25" t="n">
-        <v>0.204189066399973</v>
+        <v>0.202750811054669</v>
       </c>
       <c r="D25"/>
       <c r="E25" t="n">
-        <v>0.973809431513268</v>
+        <v>0.973710175309689</v>
       </c>
       <c r="F25"/>
     </row>
@@ -822,7 +822,7 @@
         <v>147</v>
       </c>
       <c r="B26" t="n">
-        <v>30.1940242208421</v>
+        <v>29.9844014494216</v>
       </c>
       <c r="C26"/>
       <c r="D26"/>
@@ -836,19 +836,19 @@
         <v>1</v>
       </c>
       <c r="B27" t="n">
-        <v>0.00568329544380945</v>
+        <v>0.00549445930836925</v>
       </c>
       <c r="C27" t="n">
-        <v>0.00568329544380945</v>
+        <v>0.00549445930836925</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0683849538709671</v>
+        <v>0.0658861316173537</v>
       </c>
       <c r="E27" t="n">
-        <v>0.000452593699371172</v>
+        <v>0.000436073834453364</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8906</v>
+        <v>0.8886</v>
       </c>
     </row>
     <row r="28">
@@ -856,19 +856,19 @@
         <v>1</v>
       </c>
       <c r="B28" t="n">
-        <v>0.578636219910939</v>
+        <v>0.580507985055344</v>
       </c>
       <c r="C28" t="n">
-        <v>0.578636219910939</v>
+        <v>0.580507985055344</v>
       </c>
       <c r="D28" t="n">
-        <v>6.96251173248122</v>
+        <v>6.96108995657172</v>
       </c>
       <c r="E28" t="n">
-        <v>0.04608015014333</v>
+        <v>0.0460726577023305</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0138</v>
+        <v>0.0159</v>
       </c>
     </row>
     <row r="29">
@@ -876,19 +876,19 @@
         <v>1</v>
       </c>
       <c r="B29" t="n">
-        <v>0.00538417463097729</v>
+        <v>0.00520527723950737</v>
       </c>
       <c r="C29" t="n">
-        <v>0.00538417463097729</v>
+        <v>0.00520527723950737</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0647857457724941</v>
+        <v>0.0624184404795942</v>
       </c>
       <c r="E29" t="n">
-        <v>0.00042877297835163</v>
+        <v>0.000413122580008423</v>
       </c>
       <c r="F29" t="n">
-        <v>0.8931</v>
+        <v>0.9015</v>
       </c>
     </row>
     <row r="30">
@@ -896,14 +896,14 @@
         <v>144</v>
       </c>
       <c r="B30" t="n">
-        <v>11.9674650282394</v>
+        <v>12.0086294487621</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0831073960294401</v>
+        <v>0.0833932600608481</v>
       </c>
       <c r="D30"/>
       <c r="E30" t="n">
-        <v>0.953038483178947</v>
+        <v>0.953078145883208</v>
       </c>
       <c r="F30"/>
     </row>
@@ -912,7 +912,7 @@
         <v>147</v>
       </c>
       <c r="B31" t="n">
-        <v>12.5571687182251</v>
+        <v>12.5998371703654</v>
       </c>
       <c r="C31"/>
       <c r="D31"/>
@@ -938,7 +938,7 @@
         <v>0.0132103176058584</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1669</v>
+        <v>0.173</v>
       </c>
     </row>
     <row r="33">
@@ -958,7 +958,7 @@
         <v>0.00101735788396135</v>
       </c>
       <c r="F33" t="n">
-        <v>0.7037</v>
+        <v>0.7062</v>
       </c>
     </row>
     <row r="34">
@@ -978,7 +978,7 @@
         <v>0.0000136883150685139</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9623</v>
+        <v>0.9651</v>
       </c>
     </row>
     <row r="35">
